--- a/biology/Botanique/Trèfle_d'Alexandrie/Trèfle_d'Alexandrie.xlsx
+++ b/biology/Botanique/Trèfle_d'Alexandrie/Trèfle_d'Alexandrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_d%27Alexandrie</t>
+          <t>Trèfle_d'Alexandrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium alexandrinum
 Le trèfle d'Alexandrie (Trifolium alexandrinum L.) est une plante herbacée appartenant au genre Trifolium et à la famille des Fabacées (ou légumineuses).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_d%27Alexandrie</t>
+          <t>Trèfle_d'Alexandrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige, velue, est assez longue, un peu en zigzag. Les folioles sont longues et étroites, ovales ou lancéolées, à bords ciliés, souvent rougissantes. Les fleurs sont blanc rosâtre en têtes globuleuses.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_d%27Alexandrie</t>
+          <t>Trèfle_d'Alexandrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante qui a besoin d'être irriguée pour être très productive, et qui pousse sur sols neutres ou basiques.
-Elle est très utilisé pour l’affouragement en vert de fin d’hiver et de printemps des élevages bovins laitiers dans les régions à climat méditerranéen sub-humide d’Afrique du Nord[1]. C'est une plante abondante au Proche-Orient et notamment en Égypte, où elle est cultivée comme fourrage d'hiver dans le delta du Nil.
-Il est utilisé en Europe tempérée comme culture intermédiaire (CIPAN). Il est alors simplement détruit par le gel vers −4 °C, ce qui constitue un avantage car il se décompose sur place en restituant l'azote de l'air capté par les rhizobium qui enrichi le sol sous forme de nitrates et évite d'avoir à pratiquer une intervention culturale avant la culture suivante[2].
-Son attractivité pour les pollinisateurs et sa longue période de floraison en font une plante mellifère reconnue[3].
+Elle est très utilisé pour l’affouragement en vert de fin d’hiver et de printemps des élevages bovins laitiers dans les régions à climat méditerranéen sub-humide d’Afrique du Nord. C'est une plante abondante au Proche-Orient et notamment en Égypte, où elle est cultivée comme fourrage d'hiver dans le delta du Nil.
+Il est utilisé en Europe tempérée comme culture intermédiaire (CIPAN). Il est alors simplement détruit par le gel vers −4 °C, ce qui constitue un avantage car il se décompose sur place en restituant l'azote de l'air capté par les rhizobium qui enrichi le sol sous forme de nitrates et évite d'avoir à pratiquer une intervention culturale avant la culture suivante.
+Son attractivité pour les pollinisateurs et sa longue période de floraison en font une plante mellifère reconnue.
 </t>
         </is>
       </c>
